--- a/outputs-r202/f__Lachnospiraceae.xlsx
+++ b/outputs-r202/f__Lachnospiraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY82"/>
+  <dimension ref="A1:GZ82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,6 +1470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2097,6 +2102,11 @@
           <t>g__UBA1066</t>
         </is>
       </c>
+      <c r="GZ2" t="inlineStr">
+        <is>
+          <t>g__UBA1066</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2724,6 +2734,11 @@
           <t>g__CAG-603</t>
         </is>
       </c>
+      <c r="GZ3" t="inlineStr">
+        <is>
+          <t>g__CAG-603</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3351,6 +3366,11 @@
           <t>g__CAG-603</t>
         </is>
       </c>
+      <c r="GZ4" t="inlineStr">
+        <is>
+          <t>g__CAG-603</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3978,6 +3998,11 @@
           <t>g__UBA2912</t>
         </is>
       </c>
+      <c r="GZ5" t="inlineStr">
+        <is>
+          <t>g__UBA2912</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4605,6 +4630,11 @@
           <t>g__Eubacterium_G</t>
         </is>
       </c>
+      <c r="GZ6" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_G(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5232,6 +5262,11 @@
           <t>g__UBA2912</t>
         </is>
       </c>
+      <c r="GZ7" t="inlineStr">
+        <is>
+          <t>g__UBA2912</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5859,6 +5894,11 @@
           <t>g__Catonella</t>
         </is>
       </c>
+      <c r="GZ8" t="inlineStr">
+        <is>
+          <t>g__Catonella</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6486,6 +6526,11 @@
           <t>g__UBA9722</t>
         </is>
       </c>
+      <c r="GZ9" t="inlineStr">
+        <is>
+          <t>g__UBA9722</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7113,6 +7158,11 @@
           <t>g__CAG-603</t>
         </is>
       </c>
+      <c r="GZ10" t="inlineStr">
+        <is>
+          <t>g__CAG-603(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7740,6 +7790,11 @@
           <t>g__UBA1066</t>
         </is>
       </c>
+      <c r="GZ11" t="inlineStr">
+        <is>
+          <t>g__UBA1066</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -8367,6 +8422,11 @@
           <t>g__UBA7160</t>
         </is>
       </c>
+      <c r="GZ12" t="inlineStr">
+        <is>
+          <t>g__UBA7160</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -8994,6 +9054,11 @@
           <t>g__Oribacterium</t>
         </is>
       </c>
+      <c r="GZ13" t="inlineStr">
+        <is>
+          <t>g__Oribacterium</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -9621,6 +9686,11 @@
           <t>g__RUG191</t>
         </is>
       </c>
+      <c r="GZ14" t="inlineStr">
+        <is>
+          <t>g__RUG191</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -10248,6 +10318,11 @@
           <t>g__Blautia_A</t>
         </is>
       </c>
+      <c r="GZ15" t="inlineStr">
+        <is>
+          <t>g__Blautia_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -10875,6 +10950,11 @@
           <t>g__Weimerbacter</t>
         </is>
       </c>
+      <c r="GZ16" t="inlineStr">
+        <is>
+          <t>g__Weimerbacter</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -11502,6 +11582,11 @@
           <t>g__Lachnospira</t>
         </is>
       </c>
+      <c r="GZ17" t="inlineStr">
+        <is>
+          <t>g__Lachnospira</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -12129,6 +12214,11 @@
           <t>g__UBA629</t>
         </is>
       </c>
+      <c r="GZ18" t="inlineStr">
+        <is>
+          <t>g__UBA629</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -12756,6 +12846,11 @@
           <t>g__Faecalimonas</t>
         </is>
       </c>
+      <c r="GZ19" t="inlineStr">
+        <is>
+          <t>g__Faecalimonas</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -13383,6 +13478,11 @@
           <t>g__Butyrivibrio</t>
         </is>
       </c>
+      <c r="GZ20" t="inlineStr">
+        <is>
+          <t>g__Butyrivibrio</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -14010,6 +14110,11 @@
           <t>g__Agathobacter</t>
         </is>
       </c>
+      <c r="GZ21" t="inlineStr">
+        <is>
+          <t>g__Agathobacter</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -14637,6 +14742,11 @@
           <t>g__Herbinix</t>
         </is>
       </c>
+      <c r="GZ22" t="inlineStr">
+        <is>
+          <t>g__Herbinix(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -15264,6 +15374,11 @@
           <t>g__UBA2912</t>
         </is>
       </c>
+      <c r="GZ23" t="inlineStr">
+        <is>
+          <t>g__UBA2912</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -15891,6 +16006,11 @@
           <t>g__UBA3766</t>
         </is>
       </c>
+      <c r="GZ24" t="inlineStr">
+        <is>
+          <t>g__UBA3766(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -16518,6 +16638,11 @@
           <t>g__UBA1066</t>
         </is>
       </c>
+      <c r="GZ25" t="inlineStr">
+        <is>
+          <t>g__UBA1066</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -17145,6 +17270,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ26" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -17772,6 +17902,11 @@
           <t>g__Agathobacter</t>
         </is>
       </c>
+      <c r="GZ27" t="inlineStr">
+        <is>
+          <t>g__Agathobacter</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -18399,6 +18534,11 @@
           <t>g__UBA1066</t>
         </is>
       </c>
+      <c r="GZ28" t="inlineStr">
+        <is>
+          <t>g__UBA1066</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -19026,6 +19166,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ29" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -19653,6 +19798,11 @@
           <t>g__UBA2882</t>
         </is>
       </c>
+      <c r="GZ30" t="inlineStr">
+        <is>
+          <t>g__UBA2882</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -20280,6 +20430,11 @@
           <t>g__Weimerbacter</t>
         </is>
       </c>
+      <c r="GZ31" t="inlineStr">
+        <is>
+          <t>g__Weimerbacter</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -20907,6 +21062,11 @@
           <t>g__UBA5416</t>
         </is>
       </c>
+      <c r="GZ32" t="inlineStr">
+        <is>
+          <t>g__UBA5416(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -21534,6 +21694,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ33" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -22161,6 +22326,11 @@
           <t>g__Eubacterium_H</t>
         </is>
       </c>
+      <c r="GZ34" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_H</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -22788,6 +22958,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ35" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -23415,6 +23590,11 @@
           <t>g__Eubacterium_F</t>
         </is>
       </c>
+      <c r="GZ36" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_F</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -24042,6 +24222,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ37" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -24669,6 +24854,11 @@
           <t>g__Eubacterium_H</t>
         </is>
       </c>
+      <c r="GZ38" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_H</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -25296,6 +25486,11 @@
           <t>g__UBA1066</t>
         </is>
       </c>
+      <c r="GZ39" t="inlineStr">
+        <is>
+          <t>g__UBA1066</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -25923,6 +26118,11 @@
           <t>g__Eubacterium_H</t>
         </is>
       </c>
+      <c r="GZ40" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_H</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -26550,6 +26750,11 @@
           <t>g__AC2028</t>
         </is>
       </c>
+      <c r="GZ41" t="inlineStr">
+        <is>
+          <t>g__AC2028(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -27177,6 +27382,11 @@
           <t>g__UBA2856</t>
         </is>
       </c>
+      <c r="GZ42" t="inlineStr">
+        <is>
+          <t>g__UBA2856</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -27804,6 +28014,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ43" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -28431,6 +28646,11 @@
           <t>g__CAG-127</t>
         </is>
       </c>
+      <c r="GZ44" t="inlineStr">
+        <is>
+          <t>g__CAG-127</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -29058,6 +29278,11 @@
           <t>g__Lachnoclostridium_A</t>
         </is>
       </c>
+      <c r="GZ45" t="inlineStr">
+        <is>
+          <t>g__Lachnoclostridium_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -29685,6 +29910,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ46" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -30312,6 +30542,11 @@
           <t>g__Eubacterium_H</t>
         </is>
       </c>
+      <c r="GZ47" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_H</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -30939,6 +31174,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ48" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -31566,6 +31806,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ49" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -32193,6 +32438,11 @@
           <t>g__UBA1066</t>
         </is>
       </c>
+      <c r="GZ50" t="inlineStr">
+        <is>
+          <t>g__UBA1066</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -32820,6 +33070,11 @@
           <t>g__UBA1066</t>
         </is>
       </c>
+      <c r="GZ51" t="inlineStr">
+        <is>
+          <t>g__UBA1066</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -33447,6 +33702,11 @@
           <t>g__AC2028</t>
         </is>
       </c>
+      <c r="GZ52" t="inlineStr">
+        <is>
+          <t>g__AC2028</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -34074,6 +34334,11 @@
           <t>g__CAG-317</t>
         </is>
       </c>
+      <c r="GZ53" t="inlineStr">
+        <is>
+          <t>g__CAG-317(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -34701,6 +34966,11 @@
           <t>g__Eubacterium_Q</t>
         </is>
       </c>
+      <c r="GZ54" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_Q</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -35328,6 +35598,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ55" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -35955,6 +36230,11 @@
           <t>g__Oribacterium</t>
         </is>
       </c>
+      <c r="GZ56" t="inlineStr">
+        <is>
+          <t>g__Oribacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -36582,6 +36862,11 @@
           <t>g__UBA2856</t>
         </is>
       </c>
+      <c r="GZ57" t="inlineStr">
+        <is>
+          <t>g__UBA2856</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -37209,6 +37494,11 @@
           <t>g__NK4A144</t>
         </is>
       </c>
+      <c r="GZ58" t="inlineStr">
+        <is>
+          <t>g__NK4A144(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -37836,6 +38126,11 @@
           <t>g__NK4A136</t>
         </is>
       </c>
+      <c r="GZ59" t="inlineStr">
+        <is>
+          <t>g__NK4A136</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -38463,6 +38758,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ60" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -39090,6 +39390,11 @@
           <t>g__Eubacterium_Q</t>
         </is>
       </c>
+      <c r="GZ61" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_Q</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -39717,6 +40022,11 @@
           <t>g__Oribacterium</t>
         </is>
       </c>
+      <c r="GZ62" t="inlineStr">
+        <is>
+          <t>g__Oribacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -40344,6 +40654,11 @@
           <t>g__CAG-603</t>
         </is>
       </c>
+      <c r="GZ63" t="inlineStr">
+        <is>
+          <t>g__CAG-603</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -40971,6 +41286,11 @@
           <t>g__TF01-11</t>
         </is>
       </c>
+      <c r="GZ64" t="inlineStr">
+        <is>
+          <t>g__TF01-11(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -41598,6 +41918,11 @@
           <t>g__Stomatobaculum</t>
         </is>
       </c>
+      <c r="GZ65" t="inlineStr">
+        <is>
+          <t>g__Stomatobaculum(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -42225,6 +42550,11 @@
           <t>g__Blautia_A</t>
         </is>
       </c>
+      <c r="GZ66" t="inlineStr">
+        <is>
+          <t>g__Blautia_A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -42852,6 +43182,11 @@
           <t>g__RUG306</t>
         </is>
       </c>
+      <c r="GZ67" t="inlineStr">
+        <is>
+          <t>g__RUG306</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -43479,6 +43814,11 @@
           <t>g__UBA3633</t>
         </is>
       </c>
+      <c r="GZ68" t="inlineStr">
+        <is>
+          <t>g__UBA3633</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -44106,6 +44446,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ69" t="inlineStr">
+        <is>
+          <t>g__CAG-791</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -44733,6 +45078,11 @@
           <t>g__RUG842</t>
         </is>
       </c>
+      <c r="GZ70" t="inlineStr">
+        <is>
+          <t>g__RUG842</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -45360,6 +45710,11 @@
           <t>g__CAG-590</t>
         </is>
       </c>
+      <c r="GZ71" t="inlineStr">
+        <is>
+          <t>g__CAG-590</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -45987,6 +46342,11 @@
           <t>g__UBA2912</t>
         </is>
       </c>
+      <c r="GZ72" t="inlineStr">
+        <is>
+          <t>g__UBA2912</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -46614,6 +46974,11 @@
           <t>g__UBA2882</t>
         </is>
       </c>
+      <c r="GZ73" t="inlineStr">
+        <is>
+          <t>g__UBA2882</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -47241,6 +47606,11 @@
           <t>g__UBA1066</t>
         </is>
       </c>
+      <c r="GZ74" t="inlineStr">
+        <is>
+          <t>g__UBA1066</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -47868,6 +48238,11 @@
           <t>g__CAG-791</t>
         </is>
       </c>
+      <c r="GZ75" t="inlineStr">
+        <is>
+          <t>g__CAG-791(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -48495,6 +48870,11 @@
           <t>g__Catonella</t>
         </is>
       </c>
+      <c r="GZ76" t="inlineStr">
+        <is>
+          <t>g__Catonella</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -49122,6 +49502,11 @@
           <t>g__Eubacterium_H</t>
         </is>
       </c>
+      <c r="GZ77" t="inlineStr">
+        <is>
+          <t>g__Eubacterium_H</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -49749,6 +50134,11 @@
           <t>g__Blautia_A</t>
         </is>
       </c>
+      <c r="GZ78" t="inlineStr">
+        <is>
+          <t>g__Blautia_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -50376,6 +50766,11 @@
           <t>g__UBA4285</t>
         </is>
       </c>
+      <c r="GZ79" t="inlineStr">
+        <is>
+          <t>g__UBA4285</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -51003,6 +51398,11 @@
           <t>g__Weimerbacter</t>
         </is>
       </c>
+      <c r="GZ80" t="inlineStr">
+        <is>
+          <t>g__Weimerbacter</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -51630,6 +52030,11 @@
           <t>g__UBA2912</t>
         </is>
       </c>
+      <c r="GZ81" t="inlineStr">
+        <is>
+          <t>g__UBA2912</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -52257,6 +52662,11 @@
           <t>g__CAG-127</t>
         </is>
       </c>
+      <c r="GZ82" t="inlineStr">
+        <is>
+          <t>g__CAG-127</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
